--- a/src/test/resources/technician/performance-analysis/Comparison.xlsx
+++ b/src/test/resources/technician/performance-analysis/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace-25\Projects\Acme-ANS-D04\src\test\resources\technician\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiaoviedo/Documents/WS-DP2/dp2-c1-034/src/test/resources/technician/performance-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55082817-491D-4748-A5CC-4FDDEE29D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F88B27-D6B5-A24E-9F8F-27F10FB5A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{BF396867-1A46-49C2-B482-95F16B08F1B3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="11520" xr2:uid="{BF396867-1A46-49C2-B482-95F16B08F1B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Before</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>P(Z&lt;=z) dos cola</t>
+  </si>
+  <si>
+    <t>Antes</t>
+  </si>
+  <si>
+    <t>Despues</t>
   </si>
 </sst>
 </file>
@@ -144,12 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,116 +493,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59A00FB-2987-491A-A397-39F7D6F28958}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>831.88883299999998</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1142.7249999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>36.192389174262694</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>33.679248709115271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>9490291484</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>6721947833</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>746</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>746</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>5.3909421783263772E-4</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0.49978493253380385</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.6448536269514715</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>0.9995698650676077</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1.9599639845400536</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -612,13 +612,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>831.88883299999998</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1142.7249999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>104.913083</v>
       </c>
@@ -642,7 +642,7 @@
         <v>54.755125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10.254834000000001</v>
       </c>
@@ -650,7 +650,7 @@
         <v>10.025499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>277.76441699999998</v>
       </c>
@@ -658,7 +658,7 @@
         <v>315.83462500000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7.9695410000000004</v>
       </c>
@@ -666,7 +666,7 @@
         <v>12.267416000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>11.25825</v>
       </c>
@@ -674,7 +674,7 @@
         <v>7.8251249999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>26.839625000000002</v>
       </c>
@@ -682,7 +682,7 @@
         <v>76.265167000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6.3556670000000004</v>
       </c>
@@ -690,7 +690,7 @@
         <v>211.33183299999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10.421540999999999</v>
       </c>
@@ -698,7 +698,7 @@
         <v>6.8779170000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>26.928457999999999</v>
       </c>
@@ -706,7 +706,7 @@
         <v>158.144666</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7.1095410000000001</v>
       </c>
@@ -714,7 +714,7 @@
         <v>5.0320410000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5.77325</v>
       </c>
@@ -722,7 +722,7 @@
         <v>5.0312910000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>229.730166</v>
       </c>
@@ -730,7 +730,7 @@
         <v>141.09700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4.4602089999999999</v>
       </c>
@@ -738,7 +738,7 @@
         <v>15.731125</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12.554582999999999</v>
       </c>
@@ -746,7 +746,7 @@
         <v>8.5310419999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8.5186670000000007</v>
       </c>
@@ -754,7 +754,7 @@
         <v>5.6272909999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>11.402749999999999</v>
       </c>
@@ -762,7 +762,7 @@
         <v>155.880708</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7.4394999999999998</v>
       </c>
@@ -770,7 +770,7 @@
         <v>6.5759169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6.3567499999999999</v>
       </c>
@@ -778,7 +778,7 @@
         <v>15.236291</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6.1927510000000003</v>
       </c>
@@ -786,7 +786,7 @@
         <v>6.9501670000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>11.440125</v>
       </c>
@@ -794,7 +794,7 @@
         <v>203.08699999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7.8749580000000003</v>
       </c>
@@ -802,7 +802,7 @@
         <v>4.9874999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.6938330000000001</v>
       </c>
@@ -810,7 +810,7 @@
         <v>4.2029170000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>15.224417000000001</v>
       </c>
@@ -818,7 +818,7 @@
         <v>14.763417</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.8855</v>
       </c>
@@ -826,7 +826,7 @@
         <v>4.7212079999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>10.867082999999999</v>
       </c>
@@ -834,7 +834,7 @@
         <v>12.384375</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>4.4109170000000004</v>
       </c>
@@ -842,7 +842,7 @@
         <v>6.655958</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>10.730416999999999</v>
       </c>
@@ -850,7 +850,7 @@
         <v>180.350166</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.6080000000000001</v>
       </c>
@@ -858,7 +858,7 @@
         <v>4.352417</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4.2302920000000004</v>
       </c>
@@ -866,7 +866,7 @@
         <v>5.1667500000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>12.2775</v>
       </c>
@@ -874,7 +874,7 @@
         <v>11.582666</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>6.0884590000000003</v>
       </c>
@@ -882,7 +882,7 @@
         <v>4.6265000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4.1018749999999997</v>
       </c>
@@ -890,7 +890,7 @@
         <v>3.5310000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>9.8425840000000004</v>
       </c>
@@ -898,7 +898,7 @@
         <v>9.06175</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>3.384125</v>
       </c>
@@ -906,7 +906,7 @@
         <v>5.218083</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>5.195792</v>
       </c>
@@ -914,7 +914,7 @@
         <v>5.3287500000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3.6768339999999999</v>
       </c>
@@ -922,7 +922,7 @@
         <v>3.521042</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5.6122920000000001</v>
       </c>
@@ -930,7 +930,7 @@
         <v>6.9037920000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>3.505042</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3.91025</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3.5071669999999999</v>
       </c>
@@ -946,7 +946,7 @@
         <v>3.7862499999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8.5200829999999996</v>
       </c>
@@ -954,7 +954,7 @@
         <v>9.8540419999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>3.8336260000000002</v>
       </c>
@@ -962,7 +962,7 @@
         <v>4.626042</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>6.3083330000000002</v>
       </c>
@@ -970,7 +970,7 @@
         <v>6.1517080000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>8.3343749999999996</v>
       </c>
@@ -978,7 +978,7 @@
         <v>11.196790999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>53.604917</v>
       </c>
@@ -986,7 +986,7 @@
         <v>3.6640000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>7.7238749999999996</v>
       </c>
@@ -994,7 +994,7 @@
         <v>7.0667499999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>202.55883399999999</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>7.06175</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>3.5181659999999999</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>3.515333</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>4.5732080000000002</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>3.9914580000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>10.818541</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>9.6306250000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>3.681959</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>3.5532919999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>5.0405829999999998</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>6.2448750000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>8.6952499999999997</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>141.26587499999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3.1998340000000001</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>3.6232500000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3.6810830000000001</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>3.9344999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>6.4068339999999999</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>6.7645840000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>3.7422089999999999</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>3.3191250000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>4.7809169999999996</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3.768875</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>7.1465829999999997</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>7.2123749999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>3.6645409999999998</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>3.032375</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>4.2152909999999997</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3.2150829999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>3.634166</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3.378625</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>7.6044159999999996</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>5.7458749999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2.713708</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>3.1163750000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>3.7309169999999998</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>4.844875</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>7.3850829999999998</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>9.5342500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>3.8555000000000001</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>3.2895829999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3.7213750000000001</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>3.2459169999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>7.9849589999999999</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>4.4702500000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>4.228917</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>2.7010000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>3.613375</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>2.842625</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>6.4923330000000004</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>179.105459</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>3.2488329999999999</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>3.8018329999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>3.243709</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>3.8242500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>123.548958</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>13.728999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>3.0666660000000001</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>3.1607919999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>3.0420419999999999</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>3.5206249999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>5.2295410000000002</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>7.4716670000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2.8869590000000001</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>3.3618329999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>4.0990010000000003</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>2.939708</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>153.70433299999999</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>292.48483299999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>902.12808299999995</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>123.85841600000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>22.654958000000001</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>34.248624999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>31.963625</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>34.663291999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>24.918832999999999</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>49.780084000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>18.961124999999999</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>20.939958000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>25.387291999999999</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>11.654500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>21.082540999999999</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>18.314374999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>9.3470410000000008</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>12.713374999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>18.405625000000001</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>274.68883399999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>18.176791999999999</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>14.092541000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>33.330750000000002</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>13.309792</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>9.0537500000000009</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15.902666999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>18.404416000000001</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>17.858917000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>13.252167</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>6.1127919999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>47.560457999999997</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>41.317791999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>6.900792</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>6.7010829999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>18.276208</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>15.350250000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>11.168459</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>10.098917</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>21.216833000000001</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>23.190583</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>7.5932919999999999</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>5.5484999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>12.985749999999999</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>11.275917</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>6.7524170000000003</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>22.428083000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>18.793792</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>20.933</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>6.6020830000000004</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>7.0207079999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>13.540666999999999</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>16.738959000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>10.05775</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>10.355917</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>12.460292000000001</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>24.740500000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>8.9419170000000001</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>6.2727089999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>17.226583000000002</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>14.046334</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>6.375292</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>5.0798750000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>25.17</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>23.517541000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>5.1351250000000004</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>4.2166670000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>12.060625</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>11.733834</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>7.3338340000000004</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5.4047919999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>12.906708</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>12.21</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>4.2083329999999997</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>12.796583999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>9.9037500000000005</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>23.718875000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>8.7923329999999993</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>4.9006249999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>24.674666999999999</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>19.717124999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>5.2997500000000004</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>4.3883749999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>9.2275829999999992</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>10.041124999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>4.5217919999999996</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>4.7897080000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>10.589791</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>11.991583</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>5.1084170000000002</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>3.8185419999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>10.727209</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>11.273833</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>4.2097910000000001</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>7.1369999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>10.397334000000001</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>14.395625000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>15.96</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>4.7142499999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>17.723125</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>9.689667</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>4.7480830000000003</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>5.4484579999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>10.523790999999999</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>12.070125000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>4.4137089999999999</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>9.7984170000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>9.9781250000000004</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>17.819125</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>4.0057489999999998</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>5.352125</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>11.858625</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>10.619084000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>5.4832090000000004</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>5.3194999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>9.1059990000000006</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>9.3915000000000006</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>529.89712499999996</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>3.961541</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>59.802999999999997</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>9.5441249999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>10.281834</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>7.9212090000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>29.172208000000001</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>24.698457999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>11.733167</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>4.5682090000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>22.373166999999999</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>10.7865</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>4.7195840000000002</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>3.7328749999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>13.453583999999999</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>12.983499999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>4.9832910000000004</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>10.104042</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>9.3987499999999997</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>9.3869579999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>5.4387489999999996</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>7.7306670000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>10.691375000000001</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>11.092041999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>8.0970829999999996</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>11.2935</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>10.434958</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>17.969957999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>5.1457499999999996</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>4.3772919999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>9.5717499999999998</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>10.148417</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>4.789167</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>5.1308749999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>10.399417</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>9.5047920000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>11.216084</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>7.3002500000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>31.246375</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>8.9128749999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>4.9656659999999997</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>4.7099169999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>19.529458000000002</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>19.407457999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>5.925376</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>5.4370830000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>11.109875000000001</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>10.089499999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>4.2844170000000004</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>4.3918330000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>19.162333</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>19.920209</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>6.7926659999999996</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>4.3279579999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>9.1657499999999992</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>10.21725</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>3.3686669999999999</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>3.3850419999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>8.9462910000000004</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>9.4797919999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>3.8900410000000001</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>4.531625</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>8.7988339999999994</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>8.9609579999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>3.6298339999999998</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>9.5567499999999992</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>9.5542090000000002</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>10.264374999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>5.1355000000000004</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>5.4270420000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>11.072542</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>9.1602080000000008</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>5.4859169999999997</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>10.751250000000001</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>10.0375</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41.707791</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>3.30375</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>9.859375</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>10.080249999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>3.7507920000000001</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>6.3908750000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>9.7446249999999992</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>9.6103749999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>3.900458</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>11.22575</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>11.998958</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>24.369125</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>3.6383749999999999</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>10.239667000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>9.8415409999999994</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>27.32225</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>9.3417089999999998</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>4.9714999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>19.968208000000001</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>9.9937500000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>3.39025</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>10.244417</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>9.8886669999999999</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>18.626916999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>3.4089999999999998</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>3.4067500000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>12.023123999999999</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>12.1195</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>3.565458</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>3.77075</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>11.182</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>10.045083</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>73.760958000000002</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>102.99520800000001</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43.341667000000001</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>27.102166</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>26.604208</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>104.689542</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>23.068249999999999</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>141.49966699999999</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>13.894291000000001</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>22.460625</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>7.1451659999999997</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>13.440167000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>9.6797500000000003</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>9.7156669999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>5.6144999999999996</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>5.5840829999999997</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>11.320292</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>16.897500000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>5.3687079999999998</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>15.841459</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>20.018374999999999</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>7.5395830000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>6.1357080000000002</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>7.0837500000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>12.7125</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>13.836375</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>7.0882079999999998</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>9.7091250000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>7.242375</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>4.9981660000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>5.7823330000000004</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>4.0142920000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>23.157834000000001</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>25.849708</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>7.621791</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>7.8247920000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>5.8494999999999999</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>4.699916</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>4.7978750000000003</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>5.8990830000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>8.5195830000000008</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>4.8730830000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>4.8336249999999996</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>29.353417</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>6.1395419999999996</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>5.7362500000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>5.8826660000000004</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>8.0463339999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>5.0470829999999998</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>6.3685830000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>3.8517489999999999</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>5.2883750000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>17.018000000000001</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>17.425457999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>8.8654159999999997</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>6.0609999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>5.7610000000000001</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4.6748750000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>4.928166</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>4.0274999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>5.7475420000000002</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>5.0196249999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>3.2739579999999999</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>4.7649169999999996</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>5.1090419999999996</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>4.7499580000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>4.5922080000000003</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>4.6459999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>5.0224580000000003</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>6.3944999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>3.8420420000000002</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>21.996915999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>3.3951660000000001</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>3.4091670000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>3.8404579999999999</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>3.7133750000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>3.8374579999999998</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>6.2454590000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>4.1312090000000001</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>5.887416</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>3.3821669999999999</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>3.3538329999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>5.6115830000000004</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>4.0331250000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>3.4865409999999999</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>3.3735840000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>6.8192919999999999</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>5.6847500000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>4.1148749999999996</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>4.3409589999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>4.6516250000000001</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>3.2624580000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>8.4077909999999996</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>3.7422499999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>4.3561670000000001</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>15.291709000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>3.3931659999999999</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>4.8442080000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>3.069</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>7.8235409999999996</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>4.1434160000000002</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>4.6556249999999997</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>4.0123749999999996</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>3.596584</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>3.1880000000000002</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>3.9902920000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>3.3348330000000002</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>6.9317500000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>4.800834</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>4.6191659999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>9.8902079999999994</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>6.4178750000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>3.9180000000000001</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>6.263916</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>9.3956239999999998</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>4.1275409999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>5.0345000000000004</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>6.1832909999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>3.8104170000000002</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>3.1764579999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>20.778834</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>3.3247909999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>3.1065</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>2.9125830000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>4.2005420000000004</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>3.9736669999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>3.9700839999999999</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>3.3320829999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>3.6102910000000001</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>3.7607080000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2.9751249999999998</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3.0023749999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>3.3882089999999998</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>3.010208</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>5.2930000000000001</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>3.425583</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>4.3711669999999998</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>17.453707999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>3.391375</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>3.7890830000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>6.032375</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>4.6745830000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>3.435292</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>4.5718329999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2.7444999999999999</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>2.7953749999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>3.1004170000000002</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>3.9932500000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>6.68825</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4.1297090000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>4.1245409999999998</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>2.5339160000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>3.4481670000000002</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>3.1543329999999998</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>4.4171250000000004</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>2.7779579999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>3.3445830000000001</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>3.2795839999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2.5837080000000001</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2.4496250000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2.9732919999999998</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>2.9339590000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>3.6395409999999999</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>3.1997080000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2.5651670000000002</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2.852042</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2.58725</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>2.5659160000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>3.5495000000000001</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>3.1538330000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>3.4976669999999999</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>3.0749170000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>4.4062919999999997</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>14.408833</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2.7371259999999999</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>4.0788330000000004</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>3.7552500000000002</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>2.903041</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>9.5943749999999994</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2.2925840000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>3.0088330000000001</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>2.2527919999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2.3802500000000002</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>3.7958750000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>3.8059989999999999</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>3.100209</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>3.6055839999999999</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>2.389583</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2.6967500000000002</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>17.229167</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2.5222090000000001</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>2.8464999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2.8284579999999999</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>5.3411249999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2.6865420000000002</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>2.744167</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>16.121583999999999</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>3.7094580000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>3.0871249999999999</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>2.8808750000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>3.7743329999999999</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>16.465416999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2.573458</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>3.046125</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2.7687919999999999</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>2.9958749999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>4.9512499999999999</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>5.2518339999999997</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>3.1142080000000001</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>3.2073339999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2.4333749999999998</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>2.8908749999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>53.703583999999999</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>433.734375</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>26.906624999999998</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>31.584541999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>30.550833000000001</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>12.273542000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>19.694333</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>8.1867079999999994</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>10.357542</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>9.1697919999999993</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>5.2992920000000003</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>6.2357079999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>17.276416999999999</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>8.1732080000000007</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>8.9023339999999997</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>8.1787919999999996</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>5.9646660000000002</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>48.270707999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>7.1857090000000001</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>5.4269999999999996</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>17.529917000000001</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>6.1640829999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>7.4347500000000002</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>17.261958</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>5.4301250000000003</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>7.613334</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>23.770208</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>22.156542000000002</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>5.7115</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>5.561083</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>5.0780000000000003</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>4.9209170000000002</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>5.7481249999999999</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>5.8393750000000004</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>22.193874999999998</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>4.0375420000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>5.3813329999999997</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>5.788125</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>3.951667</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>3.974459</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>5.1763329999999996</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>6.6608749999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>4.0705830000000001</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4.425834</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>10.741666</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>4.3375409999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>5.2140000000000004</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>39.474375000000002</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>4.43</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>25.665167</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>10.292208</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>7.0510000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>111.67679099999999</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>115.553375</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>69.396583000000007</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>552.751666</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>15.670667</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>15.462541999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>19.069583999999999</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>22.710583</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>12.15775</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>13.558375</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>19.284500000000001</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>20.283750000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>15.842167</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>15.736542</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>19.598042</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>21.866707999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>12.637665999999999</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>12.402042</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>20.474582999999999</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>19.680375000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>14.220333</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>13.336167</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>12.149540999999999</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>13.139167</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>19.0565</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>23.795916999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>16.917542000000001</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>19.123999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>36.569249999999997</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>66.630375000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>36.370750000000001</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>51.883125</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>106.14916599999999</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>81.636334000000005</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>603.95504100000005</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>566.79541700000004</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>153.534583</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>172.52225000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>1001.794167</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>65.490250000000003</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>132.02237500000001</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>73.030541999999997</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>281.610792</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>153.262417</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>116.439375</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>68.971874999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>113.081667</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>68.915790999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>89.925416999999996</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>76.094417000000007</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>162.35554200000001</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>113.55708300000001</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>113.978959</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>96.441333999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>152.64170899999999</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>84.214332999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>101.14175</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>80.288291999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>100.428917</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>67.718958000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>99.604375000000005</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>77.789625000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>351.02991700000001</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>229.57191599999999</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>29.842165999999999</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>29.247040999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>21.775749999999999</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>18.406500000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>21.434374999999999</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>26.506833</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>20.224582999999999</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>18.419208000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>28.860541000000001</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>22.471333000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>16.632833000000002</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>18.479082999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>22.592416</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>20.025708000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>16.836209</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>17.544542</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>24.147832999999999</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>18.880958</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>16.450583000000002</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>17.025375</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>19.627082999999999</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>18.647458</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>18.896584000000001</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>17.368957999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>27.289124999999999</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>18.777166000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>18.310334000000001</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>22.033833000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>22.351333</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>18.291208999999998</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>16.660833</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>16.215250000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>21.490832999999999</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>17.861125000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>16.692250000000001</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>17.152916999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>22.095375000000001</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>19.356625000000001</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>69.387625</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>49.377208000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>18.179333</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>17.690750000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>31.741999</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>23.395083</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>38.365625000000001</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>34.741582999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>18.656666999999999</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>19.955375</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>80.154916999999998</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>57.419041</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>484.15858300000002</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>313.17058300000002</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>32.674374999999998</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>26.789249999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>19.278917</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>23.47025</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>18.787417000000001</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>17.974625</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>19.107458999999999</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>17.290875</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>23.742625</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>21.436375000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>18.527208000000002</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>18.111415999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>20.061707999999999</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>17.905207999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>20.659583999999999</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>19.796875</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>20.558958000000001</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>18.517958</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>15.99225</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>15.118334000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>22.724540999999999</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>13.349958000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>26.358499999999999</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>22.160416999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>20.533833000000001</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>18.457083999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>20.140499999999999</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>19.609583000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>28.148416999999998</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>19.417999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>28.34825</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>60.138542000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>37.735166</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>24.247624999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>27.5625</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>22.107500000000002</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>21.309249999999999</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>17.663083</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>21.625375999999999</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>20.098915999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>187.67425</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>160.557458</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>507.263417</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>387.74645800000002</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>52.535333999999999</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>79.668125000000003</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>33.970874999999999</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>136.87912499999999</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>468.00970899999999</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>50.178041999999998</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>110.01091599999999</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>41.022416999999997</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>38.858499999999999</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>53.311208000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>78.795333999999997</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>54.410791000000003</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>18.425249999999998</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>20.993375</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>22.350166999999999</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>18.175958000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>17.277583</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>21.640333999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>20.493375</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>23.535667</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>72.141166999999996</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>20.174250000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>61.637709000000001</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>18.865917</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>26.072417000000002</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>40.409208</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>38.169167000000002</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>36.612958999999996</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>17.799291</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>20.215</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>19.957000000000001</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>58.579500000000003</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>14.290208</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>14.117291</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>25.653917</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>30.442374999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>93.066958999999997</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>272.09129200000001</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>132.92933300000001</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>148.83487500000001</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>93.757917000000006</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>96.778625000000005</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>104.582792</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>91.507917000000006</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>135.50749999999999</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>62.120291999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>77.667916000000005</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>67.512709000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>75.676124999999999</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>93.624332999999993</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>90.074832999999998</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>171.09795800000001</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>97.719624999999994</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>111.805959</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>112.67958299999999</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>111.65029199999999</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>103.575833</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>113.075834</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>79.001542000000001</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>88.926541999999998</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>62.126750000000001</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>60.162750000000003</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>1066.4312090000001</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>388.77295800000002</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>89.869249999999994</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>87.763166999999996</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>28.562041000000001</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>25.844666</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>32.015124999999998</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>35.926875000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>27.960291999999999</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>42.105083</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>26.494584</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>24.911292</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>25.825541000000001</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>25.497916</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>30.652708000000001</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>28.078084</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>29.764541000000001</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>25.482624999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>30.440750000000001</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>24.812166999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>27.665792</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>28.552291</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>25.367291999999999</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>94.359083999999996</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>28.266583000000001</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>42.908124999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>27.799250000000001</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>38.225292000000003</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>28.841291999999999</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>38.307457999999997</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>36.563665999999998</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>44.537291000000003</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>569.64933399999995</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>601.84137499999997</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>538.36391700000001</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>140.912125</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>111.462042</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>161.62308300000001</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>60.442042000000001</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>68.788167000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>499.80920900000001</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>68.015375000000006</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>68.123790999999997</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>58.155583999999998</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>38.437541000000003</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>50.289875000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>60.564791999999997</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>52.675167000000002</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>51.035666999999997</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>64.054625000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>27.0565</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>28.976292000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>26.240417000000001</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>28.233665999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>26.246375</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>27.109375</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>28.073791</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>31.821583</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>59.233249999999998</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>27.546624999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>34.235416000000001</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>35.380749999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>19.684916999999999</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>21.859458</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>22.968833</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>20.075333000000001</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>26.419542</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>23.273792</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>19.709208</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>18.818916999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>20.549499999999998</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>18.384125000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>26.810124999999999</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>19.737916999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>31.228584000000001</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>20.673625000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>19.639541000000001</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>18.04175</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>22.820584</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>35.950249999999997</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>20.453624999999999</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>18.462875</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>30.478541</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>24.880666999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>25.228625000000001</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>19.426167</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>22.776166</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>16.526875</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>17.246334000000001</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>17.327666000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>19.327542000000001</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>17.754332999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>22.405083000000001</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>25.774999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>29.570125000000001</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>30.314916</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>27.207374999999999</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>19.522375</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>25.800750000000001</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>23.159790999999998</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>20.690124999999998</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>17.209</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>22.170541</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>20.626999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>27.353417</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>18.344124999999998</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>19.660542</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>22.498584000000001</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>21.543084</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>17.560666999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>17.453416000000001</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>19.388750000000002</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>19.728625000000001</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>20.708207999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>19.391166999999999</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>18.162958</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>26.780625000000001</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>18.745875000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>19.295999999999999</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>19.594792000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>20.955666999999998</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>21.251000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>18.284541999999998</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>19.581792</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>20.521999999999998</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>17.389458000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>22.321083000000002</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>17.613416999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>18.350124999999998</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>16.705959</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>25.204083000000001</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>40.711582999999997</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>25.864875000000001</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>23.541584</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>29.072291</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>32.837083</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>52.165332999999997</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>136.956041</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>58.662291000000003</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>95.915291999999994</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>51.552416999999998</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>67.321207999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>63.380541000000001</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>67.962582999999995</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>47.651375000000002</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>66.355666999999997</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>52.330666999999998</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>68.068458000000007</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>57.007832999999998</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>60.668790999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>65.969624999999994</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>65.922083000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>52.822333</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>62.095666999999999</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>59.946249000000002</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>59.067374999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>39.621375</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>44.116624999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>45.234999999999999</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>47.038958000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>67.168583999999996</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>67.523832999999996</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>57.897917</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>29.372875000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>17.815957999999998</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>19.536833999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>18.101208</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>20.607417000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>19.299375000000001</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>19.202332999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>18.836292</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>17.843665999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>20.478791000000001</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>21.138375</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>20.741624999999999</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>22.201374999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>19.50375</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>18.182292</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>17.599499999999999</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>18.024625</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>17.080499</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>17.612708000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>17.405374999999999</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>17.403583000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>24.768999999999998</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>57.727792000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>18.080292</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>17.935832999999999</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>15.837249999999999</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>17.427875</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>21.775500000000001</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>17.207374999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>18.424665999999998</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>17.818833000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>16.050083000000001</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>19.306958999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>17.125582999999999</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>16.870041000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>20.559000000000001</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>19.960875000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>15.184082999999999</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>15.410792000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>21.56325</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>16.028873999999998</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>17.842791999999999</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>17.842124999999999</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>21.223458000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>17.277958000000002</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>26.434958999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>24.273792</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>17.012792000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>18.215333000000001</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>25.690583</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>22.035042000000001</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>17.453541999999999</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>22.813917</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>25.702999999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>22.321417</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>17.123540999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>21.310207999999999</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>25.322042</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>22.411124999999998</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>16.646875000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>18.058166</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>26.308624999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>17.749248999999999</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>657.96304199999997</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>19.936624999999999</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>475.89104200000003</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>17.665208</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>32.859875000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>20.648125</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>34.419417000000003</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>35.765625999999997</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>26.932917</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>21.531917</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>33.542583</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>20.615791999999999</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>23.731708999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>27.326958000000001</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>29.271249999999998</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>586.79862500000002</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>82.185541000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>40.790083000000003</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>20.939708</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>75.692750000000004</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>41.772125000000003</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>49.384500000000003</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>52.171832999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>31.783374999999999</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>28.228458</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>51.728417</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>59.527583</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>28.269041999999999</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>25.327375</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>61.924540999999998</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>38.478166999999999</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>111.624375</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>62.766083000000002</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>13.824875</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>13.70825</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>20.291167000000002</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>18.193292</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>10.0785</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>7.8940419999999998</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>27.772541</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>24.697458000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>18.609332999999999</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>14.936291000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>15.593624999999999</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>16.735917000000001</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>7.7300420000000001</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>6.9092500000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>18.028500000000001</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>20.841958999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>9.3734579999999994</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>7.8412090000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>18.579666</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>16.903124999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>9.2417499999999997</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>8.5528750000000002</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>23.669167000000002</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>16.214749999999999</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>10.89325</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>8.4065840000000005</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>17.546292000000001</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>16.022041999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>9.8402499999999993</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>9.2845410000000008</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>40.310541999999998</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>15.409833000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>11.913542</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>8.0163329999999995</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>16.713875000000002</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>18.738042</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>23.361625</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>19.436416999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>17.953042</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>14.302250000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>39.660541000000002</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>98.847791999999998</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>10.267708000000001</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>10.028667</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>20.707083999999998</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>20.545708000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>13.723792</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>14.639125</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>18.669</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>19.895792</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>18.932041999999999</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>19.885292</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>51.873333000000002</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>17.265958999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>17.399833000000001</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>16.010041999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>21.288792000000001</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>17.262250000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>22.086041000000002</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>13.897792000000001</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>10.036415999999999</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>8.7541250000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>17.460291999999999</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>16.018625</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>461.749459</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>17.911833000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>19.665001</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>14.335208</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>20.265332999999998</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>16.470333</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>58.967167000000003</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>458.42991699999999</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>62.882750000000001</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>71.058499999999995</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>35.364417000000003</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>23.208749999999998</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>49.965499999999999</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>39.986167000000002</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>12.983751</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>14.599833</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>23.351292000000001</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>21.858540999999999</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>19.242542</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>13.046666999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>27.724875000000001</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>33.251291999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>53.817250000000001</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>20.064042000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>26.773083</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>18.913542</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>49.970832999999999</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>17.660834000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>17.878291999999998</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>11.341041000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>55.092916000000002</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>34.637542000000003</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>441.53395799999998</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>401.38595900000001</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>22.142083</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>18.44125</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>18.375667</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>19.548541</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>25.514834</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>20.707042000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>20.346374999999998</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>20.009374999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>23.122250000000001</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>40.395958999999998</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>23.459292000000001</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>23.531666999999999</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>23.611667000000001</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>22.804292</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>21.984041000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>21.449874999999999</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>21.976417000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>12.185375000000001</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>13.441916000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>17.937999999999999</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>22.370374999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>15.032417000000001</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>12.376333000000001</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>15.384458</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>15.676042000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>13.22425</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>12.206417</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>8.9819589999999998</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>10.006833</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>153.40879100000001</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>140.34591699999999</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>58.441291999999997</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>49.117165999999997</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>38.869</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>28.235583999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>21.567584</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>42.668958000000003</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>23.191915999999999</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>19.886875</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>22.500792000000001</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>65.475999999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>25.558582999999999</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>18.093499999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>126.750083</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>17.258709</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>25.755958</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>25.187249999999999</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>22.686916</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>18.732707999999999</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>14.829750000000001</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>13.580125000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>11.371292</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>13.493667</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>12.824</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>17.552333999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>25.890291000000001</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>22.574791000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>12.202334</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>18.712</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>60.072958999999997</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>44.247542000000003</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>12.416083</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>13.709709</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>21.211957999999999</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>21.233291999999999</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>31.405166000000001</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>27.064457999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>57.770833000000003</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>30.485208</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>24.033791999999998</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>28.017416999999998</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>30.142250000000001</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>29.631250000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>29.060375000000001</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>36.284958000000003</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>16.994458000000002</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>19.940375</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>27.333292</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>30.630666999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>17.826540999999999</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>18.311125000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>32.993250000000003</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>41.176958999999997</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>18.517208</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>17.194334000000001</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>18.981625000000001</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>16.871917</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>40.788708</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>41.005333</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>27.167290999999999</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>17.383790999999999</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>13.542249999999999</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>20.220165999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>18.435207999999999</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>22.325458000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>12.897542</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>10.998250000000001</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>31.971041</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>28.38025</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>12.201667</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>17.828208</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>18.407875000000001</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>18.603916000000002</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>13.773583</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>12.636167</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>14.684417</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>20.231625000000001</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>11.867958</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>11.14325</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>18.810458000000001</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>18.586290999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>12.790749999999999</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>11.759375</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>19.047125000000001</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>17.113458000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>13.286376000000001</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>12.405291</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>18.710083999999998</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>18.257584000000001</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>16.975666</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>18.341290999999998</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>16.805042</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>16.266209</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>17.831792</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>16.961666999999998</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>16.635791999999999</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>19.038250000000001</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>20.427709</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>19.910458999999999</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>20.5335</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>24.200458000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>25.987292</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>28.974792000000001</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>24.020582999999998</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>28.759250000000002</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>19.329042000000001</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>18.522708000000002</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>17.455459000000001</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>22.441375000000001</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>26.804542000000001</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>26.821124999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>18.208625000000001</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>21.144791999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>16.346665999999999</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>18.220541999999998</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>40.061332999999998</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>76.881084000000001</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>16.255666999999999</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>19.007916000000002</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>17.053374999999999</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>22.858665999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>27.846167000000001</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>735.74629100000004</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>33.775666999999999</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>78.237916999999996</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>12.452709</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>16.946083000000002</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>13.574417</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>23.056708</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>11.639208</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>12.421583</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>17.536166999999999</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>19.543208</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>14.078167000000001</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>14.238166</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>13.573917</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>12.970542</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>12.931416</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>15.561875000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>12.193333000000001</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>12.167042</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>37.260458</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>14.245666</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>14.075875</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>13.166957999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>10.527875</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>9.3048749999999991</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>10.66075</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>11.982291999999999</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>13.518375000000001</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>11.318916</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>8.0399999999999991</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>13.476667000000001</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>18.135667000000002</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>16.783332999999999</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>16.674042</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>16.038917000000001</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>9.2681249999999995</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>8.655958</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>18.368375</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>15.719457999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>13.614875</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>7.9184169999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>14.166459</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>16.284666999999999</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>17.725124999999998</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>13.055083</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>10.1615</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>11.220333</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>9.5470419999999994</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>16.919540999999999</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>22.323333000000002</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>25.858499999999999</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>18.957291999999999</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>19.338291000000002</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>17.186667</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>19.115666999999998</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>18.121458000000001</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>18.548584000000002</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>27.067416000000001</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>32.382541000000003</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>25.439499999999999</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>28.421375000000001</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>31.366834000000001</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>27.664833000000002</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>12.590249999999999</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>12.113334</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>29.182375</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>25.781082999999999</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>28.041208000000001</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>25.904458000000002</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>517.21470799999997</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>13.843332999999999</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>89.362958000000006</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>24.472375</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>17.460083999999998</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>18.245166999999999</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>19.166125000000001</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>15.723666</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>9.4188749999999999</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>18.936457999999998</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>16.678000000000001</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>19.221875000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>18.478667000000002</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>17.206458999999999</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>18.213415999999999</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>22.816500000000001</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>16.694666999999999</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>49.242041999999998</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>9.5594169999999998</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>22.6845</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>17.195708</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>19.320208999999998</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>10.488</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>9.2654169999999993</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>10.028083000000001</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>10.395833</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>23.024999000000001</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>19.404</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>16.071583</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>16.66375</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>19.525207999999999</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>19.157291000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>16.230874</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>17.999333</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>20.908417</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>28.036415999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>18.823917000000002</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>19.285958000000001</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>15.250208000000001</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>14.964292</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>9.0217080000000003</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>10.647834</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>8.0521250000000002</v>
       </c>
